--- a/experiments/pg/return_discount_increment/mlp_3x182_corr_entropy_inp_time_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_corr_entropy_inp_time_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2901"/>
+  <dimension ref="A1:C2909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38145,6 +38145,110 @@
         <v>14.32308696624342</v>
       </c>
     </row>
+    <row r="2902">
+      <c r="A2902" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>[7, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2902" t="n">
+        <v>14.32693469236708</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" s="1" t="n">
+        <v>2901</v>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>[7, 2, -2]</t>
+        </is>
+      </c>
+      <c r="C2903" t="n">
+        <v>14.2173922455901</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" s="1" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>[7, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2904" t="n">
+        <v>14.0572368490068</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" s="1" t="n">
+        <v>2903</v>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>[7, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2905" t="n">
+        <v>14.08245932375377</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="1" t="n">
+        <v>2904</v>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>[7, 4, -2]</t>
+        </is>
+      </c>
+      <c r="C2906" t="n">
+        <v>14.10594468931331</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="1" t="n">
+        <v>2905</v>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>[7, 3, -2]</t>
+        </is>
+      </c>
+      <c r="C2907" t="n">
+        <v>14.08158525968393</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="1" t="n">
+        <v>2906</v>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>[7, 1, -2]</t>
+        </is>
+      </c>
+      <c r="C2908" t="n">
+        <v>14.61417565486927</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="1" t="n">
+        <v>2907</v>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>[6, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2909" t="n">
+        <v>14.07790118405234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/pg/return_discount_increment/mlp_3x182_corr_entropy_inp_time_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_corr_entropy_inp_time_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2909"/>
+  <dimension ref="A1:C2910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38249,6 +38249,19 @@
         <v>14.07790118405234</v>
       </c>
     </row>
+    <row r="2910">
+      <c r="A2910" s="1" t="n">
+        <v>2908</v>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>[4, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2910" t="n">
+        <v>14.03743089423888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
